--- a/Estrazione storico richieste-3.xlsx
+++ b/Estrazione storico richieste-3.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E57F8F-6751-074F-B9D7-8A363560376F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Storico richieste di rimborso" r:id="rId3" sheetId="1"/>
+    <sheet name="Storico richieste di rimborso" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'Storico richieste di rimborso'!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Storico richieste di rimborso'!$A$1:$G$35</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
   <si>
     <t>Data prestazione</t>
   </si>
@@ -294,26 +302,28 @@
   </si>
   <si>
     <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>kkkffffff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="9"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -321,67 +331,19 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin">
@@ -396,6 +358,7 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -403,57 +366,365 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.4609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.1953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.2890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="25.0625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="20.72265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.078125" customWidth="true"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -476,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -499,7 +770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -522,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -545,12 +816,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -568,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -591,7 +862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -614,7 +885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -637,7 +908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -660,7 +931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -683,7 +954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -706,7 +977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -729,7 +1000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -752,7 +1023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -775,7 +1046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -798,7 +1069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -821,7 +1092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -844,7 +1115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -867,7 +1138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -890,7 +1161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -913,7 +1184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -936,7 +1207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -959,7 +1230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -982,7 +1253,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -1005,7 +1276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -1028,7 +1299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -1051,7 +1322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1074,7 +1345,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -1097,7 +1368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -1120,7 +1391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -1143,7 +1414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>89</v>
       </c>
@@ -1166,7 +1437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1212,7 +1483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1235,7 +1506,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -1259,7 +1530,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G35"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>